--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F24134D-F687-4E3D-90F3-BF7A84BBB09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F022F6-2981-43F9-A549-597B38714FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-372" yWindow="3072" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人（ひと）" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="協会（きょうかい）" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="494">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1627,10 +1626,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ちょうなｎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>あね</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2270,6 +2265,38 @@
   </si>
   <si>
     <t>りょうおや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうなん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（奶奶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他人（たにん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいいん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警視庁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいしちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庁｜ちょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2823,13 +2850,13 @@
         <v>230</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2840,13 +2867,13 @@
         <v>294</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" t="s">
         <v>410</v>
-      </c>
-      <c r="F15" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2862,13 +2889,13 @@
     </row>
     <row r="17" spans="4:6" ht="18" x14ac:dyDescent="0.45">
       <c r="D17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -2967,7 +2994,7 @@
   <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3109,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEF3DB-BE9D-4A5E-B01E-14AF7BE7B182}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3128,6 +3155,9 @@
       <c r="A1" s="1" t="s">
         <v>341</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -3146,10 +3176,10 @@
         <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3157,22 +3187,22 @@
         <v>162</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="H3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -3198,41 +3228,41 @@
         <v>198</v>
       </c>
       <c r="D5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3274,10 +3304,10 @@
     </row>
     <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>129</v>
@@ -3288,10 +3318,10 @@
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>131</v>
@@ -3305,13 +3335,13 @@
         <v>109</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3322,10 +3352,10 @@
         <v>344</v>
       </c>
       <c r="D13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3336,13 +3366,13 @@
         <v>175</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" t="s">
         <v>444</v>
-      </c>
-      <c r="F14" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3361,13 +3391,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
+        <v>464</v>
+      </c>
+      <c r="E16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F16" t="s">
         <v>465</v>
-      </c>
-      <c r="E16" t="s">
-        <v>464</v>
-      </c>
-      <c r="F16" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3375,7 +3405,7 @@
         <v>345</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>346</v>
+        <v>486</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>110</v>
@@ -3389,34 +3419,34 @@
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C19" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>70</v>
@@ -3424,10 +3454,13 @@
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
+      </c>
+      <c r="C22" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3438,31 +3471,31 @@
         <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3497,10 +3530,10 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C30" t="s">
         <v>314</v>
@@ -3519,10 +3552,10 @@
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.45">
@@ -3535,26 +3568,26 @@
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -3718,10 +3751,10 @@
         <v>290</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>89</v>
@@ -3803,7 +3836,7 @@
         <v>191</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>125</v>
@@ -3931,7 +3964,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>149</v>
@@ -3978,10 +4011,10 @@
         <v>240</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>180</v>
@@ -4010,16 +4043,16 @@
         <v>242</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="N12" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>272</v>
@@ -4042,10 +4075,10 @@
         <v>267</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>192</v>
@@ -4080,10 +4113,10 @@
         <v>201</v>
       </c>
       <c r="Q14" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
@@ -4109,10 +4142,10 @@
         <v>200</v>
       </c>
       <c r="Q15" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
@@ -4135,10 +4168,10 @@
         <v>321</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.45">
@@ -4161,13 +4194,13 @@
         <v>307</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="18" spans="4:18" x14ac:dyDescent="0.45">
@@ -4178,25 +4211,25 @@
         <v>264</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="N18" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="P18" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q18" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.45">
@@ -4213,24 +4246,24 @@
         <v>307</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="Q19" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="20" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>270</v>
@@ -4239,27 +4272,27 @@
         <v>271</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="Q20" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>168</v>
@@ -4268,18 +4301,18 @@
         <v>169</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>170</v>
@@ -4288,21 +4321,21 @@
         <v>171</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>192</v>
@@ -4311,13 +4344,13 @@
         <v>193</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="24" spans="4:18" x14ac:dyDescent="0.45">
@@ -4328,34 +4361,34 @@
         <v>326</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.45">
       <c r="N25" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="26" spans="4:18" x14ac:dyDescent="0.45">
       <c r="N26" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="27" spans="4:18" x14ac:dyDescent="0.45">
       <c r="N27" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="29" spans="4:18" x14ac:dyDescent="0.45">
@@ -4400,21 +4433,21 @@
     </row>
     <row r="35" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N35" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="O35" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="P35" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N37" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="38" spans="14:16" x14ac:dyDescent="0.45">
@@ -4427,10 +4460,10 @@
     </row>
     <row r="39" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N39" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="41" spans="14:16" x14ac:dyDescent="0.45">
@@ -4459,18 +4492,18 @@
     </row>
     <row r="44" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N44" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="45" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N45" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -4481,13 +4514,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7EE3CD-66E8-4B45-9FBB-77919FACC157}">
-  <dimension ref="A2:C6"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -4526,10 +4562,29 @@
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>430</v>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F022F6-2981-43F9-A549-597B38714FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9800480-E095-47D2-81C3-ABC2A4378FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1368" yWindow="0" windowWidth="14916" windowHeight="12360" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人（ひと）" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="497">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2297,6 +2297,18 @@
   </si>
   <si>
     <t>庁｜ちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お年寄り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おとしより</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（老人）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3137,7 +3149,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3381,6 +3393,15 @@
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.45">

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9800480-E095-47D2-81C3-ABC2A4378FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A1AAF9-1CE8-4198-B563-D3D9D2451A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1368" yWindow="0" windowWidth="14916" windowHeight="12360" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人（ひと）" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="500">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2311,12 +2311,46 @@
     <t>（老人）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>目上の人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めうえのひと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长辈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2357,6 +2391,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3148,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEF3DB-BE9D-4A5E-B01E-14AF7BE7B182}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3444,6 +3485,15 @@
       </c>
       <c r="B18" s="1" t="s">
         <v>350</v>
+      </c>
+      <c r="D18" t="s">
+        <v>497</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -4537,7 +4587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7EE3CD-66E8-4B45-9FBB-77919FACC157}">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A1AAF9-1CE8-4198-B563-D3D9D2451A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBFDB44-A7AE-44AA-A84B-AF6D950A311D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="512">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2345,12 +2345,91 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>泥棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どろぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小偷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>歯医者（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牙医）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんしゅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かれら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他们，那伙人）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろうじん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2399,6 +2478,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2420,10 +2514,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2707,7 +2802,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3044,10 +3139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C10E333-EBA2-4042-9B73-A72F01BAC739}">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3110,6 +3205,17 @@
       </c>
       <c r="C9" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3296,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3436,13 +3542,10 @@
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3452,14 +3555,14 @@
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D16" t="s">
-        <v>464</v>
-      </c>
-      <c r="E16" t="s">
-        <v>463</v>
-      </c>
-      <c r="F16" t="s">
-        <v>465</v>
+      <c r="D16" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3469,14 +3572,14 @@
       <c r="B17" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>111</v>
+      <c r="D17" t="s">
+        <v>464</v>
+      </c>
+      <c r="E17" t="s">
+        <v>463</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3486,14 +3589,14 @@
       <c r="B18" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D18" t="s">
-        <v>497</v>
+      <c r="D18" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>499</v>
+        <v>111</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3502,6 +3605,15 @@
       </c>
       <c r="B19" s="1" t="s">
         <v>352</v>
+      </c>
+      <c r="D19" t="s">
+        <v>497</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3669,10 +3781,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E45E9-7E3C-4E46-B80D-4D33EE5EAA16}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="B1:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4102,10 +4214,10 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>152</v>
+        <v>504</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>153</v>
+        <v>503</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>241</v>
@@ -4134,10 +4246,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>266</v>
@@ -4166,10 +4278,10 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>83</v>
@@ -4192,10 +4304,10 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>274</v>
@@ -4221,10 +4333,10 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>289</v>
@@ -4247,10 +4359,10 @@
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>295</v>
@@ -4276,10 +4388,10 @@
     </row>
     <row r="18" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D18" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>476</v>
@@ -4305,10 +4417,10 @@
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>306</v>
@@ -4331,10 +4443,10 @@
     </row>
     <row r="20" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
-        <v>401</v>
+        <v>299</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>402</v>
+        <v>300</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>270</v>
@@ -4357,13 +4469,10 @@
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>168</v>
@@ -4380,10 +4489,13 @@
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
-        <v>471</v>
+        <v>417</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>472</v>
+        <v>418</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>170</v>
@@ -4403,10 +4515,10 @@
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>192</v>
@@ -4425,6 +4537,12 @@
       </c>
     </row>
     <row r="24" spans="4:18" x14ac:dyDescent="0.45">
+      <c r="D24" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>481</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>325</v>
       </c>
@@ -4439,6 +4557,12 @@
       </c>
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.45">
+      <c r="D25" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="N25" s="1" t="s">
         <v>461</v>
       </c>
@@ -4478,17 +4602,20 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.45">
-      <c r="N32" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>254</v>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.45">
+      <c r="N31" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N33" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>254</v>
@@ -4496,84 +4623,92 @@
     </row>
     <row r="34" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N34" s="1" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N35" s="1" t="s">
-        <v>459</v>
+        <v>213</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>460</v>
+        <v>214</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="37" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N37" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>438</v>
+    <row r="36" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N36" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N38" s="1" t="s">
-        <v>262</v>
+        <v>437</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>263</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N39" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N40" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="41" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N41" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="42" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N42" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N43" s="1" t="s">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N44" s="1" t="s">
-        <v>445</v>
+        <v>227</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>446</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N45" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N46" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>455</v>
       </c>
     </row>

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBFDB44-A7AE-44AA-A84B-AF6D950A311D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667B850B-8283-4A53-9586-F52AFAED7487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="520">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2422,6 +2422,57 @@
   </si>
   <si>
     <t>ろうじん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>孙子，孙女）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ねんぱい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（同志）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3293,10 +3344,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEF3DB-BE9D-4A5E-B01E-14AF7BE7B182}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3572,14 +3623,14 @@
       <c r="B17" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D17" t="s">
-        <v>464</v>
-      </c>
-      <c r="E17" t="s">
-        <v>463</v>
-      </c>
-      <c r="F17" t="s">
-        <v>465</v>
+      <c r="D17" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3589,14 +3640,14 @@
       <c r="B18" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>111</v>
+      <c r="D18" t="s">
+        <v>464</v>
+      </c>
+      <c r="E18" t="s">
+        <v>463</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3626,6 +3677,15 @@
       <c r="C20" t="s">
         <v>357</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
@@ -3634,6 +3694,15 @@
       <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
@@ -3683,40 +3752,40 @@
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>245</v>
+        <v>512</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>246</v>
+        <v>513</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C29" t="s">
-        <v>314</v>
+        <v>249</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="C30" t="s">
         <v>314</v>
@@ -3724,52 +3793,63 @@
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>236</v>
+        <v>363</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>238</v>
+        <v>364</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>366</v>
+        <v>236</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>365</v>
+        <v>238</v>
+      </c>
+      <c r="C32" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>112</v>
+        <v>366</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>113</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>393</v>
+        <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>394</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>424</v>
       </c>
     </row>

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667B850B-8283-4A53-9586-F52AFAED7487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9897F736-3B8F-4933-9922-4C2161CD397C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="523">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2473,6 +2473,40 @@
   </si>
   <si>
     <t>（同志）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差出人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さしだしにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>信人）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3347,7 +3381,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3678,13 +3712,13 @@
         <v>357</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>110</v>
+        <v>520</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" t="s">
-        <v>135</v>
+        <v>521</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3695,13 +3729,13 @@
         <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>517</v>
+        <v>110</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>519</v>
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3713,6 +3747,15 @@
       </c>
       <c r="C22" t="s">
         <v>247</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.45">

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9897F736-3B8F-4933-9922-4C2161CD397C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE4C593-DEC6-4263-83D4-C3036EAA6248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人（ひと）" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="528">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2507,6 +2507,48 @@
       </rPr>
       <t>信人）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得意先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とくいさき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（老客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被害者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひがいしゃ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3381,7 +3423,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3471,11 +3513,14 @@
       <c r="B5" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D5" t="s">
-        <v>466</v>
+      <c r="D5" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>467</v>
+        <v>524</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3486,10 +3531,10 @@
         <v>362</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3499,15 +3544,6 @@
       <c r="B7" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>475</v>
-      </c>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -3520,13 +3556,10 @@
         <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>466</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3537,13 +3570,10 @@
         <v>343</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>277</v>
+        <v>468</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>279</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3554,10 +3584,13 @@
         <v>348</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>129</v>
+        <v>473</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>130</v>
+        <v>474</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3567,11 +3600,14 @@
       <c r="B11" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>131</v>
+      <c r="D11" t="s">
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>132</v>
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3582,10 +3618,13 @@
         <v>346</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>484</v>
+        <v>277</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>485</v>
+        <v>278</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3595,11 +3634,11 @@
       <c r="B13" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D13" t="s">
-        <v>456</v>
+      <c r="D13" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>470</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3609,14 +3648,11 @@
       <c r="B14" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F14" t="s">
-        <v>444</v>
+      <c r="D14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3627,10 +3663,10 @@
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3640,14 +3676,11 @@
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>494</v>
+      <c r="D16" t="s">
+        <v>456</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3657,14 +3690,14 @@
       <c r="B17" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>496</v>
+      <c r="D17" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F17" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3674,14 +3707,11 @@
       <c r="B18" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D18" t="s">
-        <v>464</v>
-      </c>
-      <c r="E18" t="s">
-        <v>463</v>
-      </c>
-      <c r="F18" t="s">
-        <v>465</v>
+      <c r="D18" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3691,14 +3721,14 @@
       <c r="B19" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D19" t="s">
-        <v>497</v>
+      <c r="D19" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3712,13 +3742,13 @@
         <v>357</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3728,14 +3758,14 @@
       <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>111</v>
+      <c r="D21" t="s">
+        <v>464</v>
+      </c>
+      <c r="E21" t="s">
+        <v>463</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3748,14 +3778,14 @@
       <c r="C22" t="s">
         <v>247</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>517</v>
+      <c r="D22" t="s">
+        <v>497</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3768,6 +3798,15 @@
       <c r="C23" t="s">
         <v>487</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
@@ -3776,6 +3815,15 @@
       <c r="B24" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
@@ -3783,6 +3831,15 @@
       </c>
       <c r="B25" s="1" t="s">
         <v>374</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3907,7 +3964,7 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="B1:C23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE4C593-DEC6-4263-83D4-C3036EAA6248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E4CCFC-A2B8-4450-B6A1-4AD97375D640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人（ひと）" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="533">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2549,6 +2549,26 @@
   </si>
   <si>
     <t>ひがいしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末っ子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すえっこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうかいはん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誘拐犯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诈骗犯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2641,11 +2661,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3420,10 +3441,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEF3DB-BE9D-4A5E-B01E-14AF7BE7B182}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3612,10 +3633,10 @@
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>528</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>346</v>
+        <v>529</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>277</v>
@@ -3629,10 +3650,10 @@
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>129</v>
@@ -3643,10 +3664,10 @@
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>344</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>131</v>
@@ -3657,10 +3678,10 @@
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>484</v>
@@ -3670,11 +3691,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>31</v>
+      <c r="A16" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>456</v>
@@ -3684,11 +3705,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>345</v>
+      <c r="A17" t="s">
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>486</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>442</v>
@@ -3702,10 +3723,10 @@
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>350</v>
+        <v>486</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>510</v>
@@ -3716,10 +3737,10 @@
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>494</v>
@@ -3733,10 +3754,10 @@
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C20" t="s">
         <v>357</v>
@@ -3753,10 +3774,10 @@
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>356</v>
       </c>
       <c r="D21" t="s">
         <v>464</v>
@@ -3770,10 +3791,10 @@
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>369</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>247</v>
@@ -3790,10 +3811,10 @@
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>115</v>
+        <v>370</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>369</v>
       </c>
       <c r="C23" t="s">
         <v>487</v>
@@ -3810,10 +3831,10 @@
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>372</v>
+        <v>115</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>373</v>
+        <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>110</v>
@@ -3827,10 +3848,10 @@
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>517</v>
@@ -3844,18 +3865,18 @@
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>512</v>
+        <v>376</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>513</v>
+        <v>377</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>514</v>
@@ -3863,18 +3884,18 @@
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>245</v>
+        <v>512</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>246</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>250</v>
@@ -3882,10 +3903,10 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>313</v>
+        <v>249</v>
       </c>
       <c r="C30" t="s">
         <v>314</v>
@@ -3893,10 +3914,10 @@
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="C31" t="s">
         <v>314</v>
@@ -3904,10 +3925,10 @@
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>236</v>
+        <v>363</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>238</v>
+        <v>364</v>
       </c>
       <c r="C32" t="s">
         <v>237</v>
@@ -3915,41 +3936,49 @@
     </row>
     <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>366</v>
+        <v>236</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>365</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>366</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>393</v>
+        <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>394</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>424</v>
       </c>
     </row>
@@ -3961,10 +3990,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E45E9-7E3C-4E46-B80D-4D33EE5EAA16}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4784,26 +4813,29 @@
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.45">
       <c r="N31" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.45">
+      <c r="N32" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>502</v>
-      </c>
-    </row>
-    <row r="33" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N33" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="34" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N34" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>254</v>
@@ -4811,84 +4843,92 @@
     </row>
     <row r="35" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N35" s="1" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>441</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N37" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="38" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N38" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="39" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N39" s="1" t="s">
-        <v>262</v>
+        <v>437</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>263</v>
+        <v>438</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N41" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="42" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N42" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="43" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N43" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N44" s="1" t="s">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N45" s="1" t="s">
-        <v>445</v>
+        <v>227</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>446</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N46" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="47" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N47" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>455</v>
       </c>
     </row>

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E4CCFC-A2B8-4450-B6A1-4AD97375D640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C382002-A84E-43FC-96B4-2C1E2BF314FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人（ひと）" sheetId="6" r:id="rId1"/>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>えいぎょうぶち</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>営業部長</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2569,6 +2565,10 @@
   </si>
   <si>
     <t>诈骗犯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えいぎょうぶちょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2966,10 +2966,10 @@
         <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2980,10 +2980,10 @@
         <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -2994,10 +2994,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3008,190 +3008,190 @@
         <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
         <v>284</v>
-      </c>
-      <c r="F5" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" t="s">
         <v>287</v>
-      </c>
-      <c r="F12" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D13" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="D15" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" t="s">
         <v>409</v>
-      </c>
-      <c r="F15" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="17" spans="4:6" ht="18" x14ac:dyDescent="0.45">
       <c r="D17" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -3303,7 +3303,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3341,29 +3341,29 @@
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
         <v>281</v>
-      </c>
-      <c r="C9" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -3419,18 +3419,18 @@
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3443,8 +3443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEF3DB-BE9D-4A5E-B01E-14AF7BE7B182}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3460,234 +3460,234 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="H3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
         <v>219</v>
       </c>
-      <c r="B4" t="s">
-        <v>220</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
         <v>232</v>
       </c>
-      <c r="C8" t="s">
-        <v>233</v>
-      </c>
       <c r="D8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" t="s">
         <v>66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="D15" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -3698,10 +3698,10 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -3712,274 +3712,274 @@
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" t="s">
         <v>443</v>
-      </c>
-      <c r="F17" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="D19" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="C20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="D21" t="s">
+        <v>463</v>
+      </c>
+      <c r="E21" t="s">
+        <v>462</v>
+      </c>
+      <c r="F21" t="s">
         <v>464</v>
-      </c>
-      <c r="E21" t="s">
-        <v>463</v>
-      </c>
-      <c r="F21" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D22" t="s">
+        <v>496</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="D25" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C30" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
         <v>313</v>
-      </c>
-      <c r="C31" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -3992,8 +3992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E45E9-7E3C-4E46-B80D-4D33EE5EAA16}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4017,22 +4017,22 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
@@ -4043,10 +4043,10 @@
         <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>38</v>
@@ -4055,25 +4055,25 @@
         <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -4084,37 +4084,37 @@
         <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="N3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="Q3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
@@ -4125,34 +4125,34 @@
         <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="J4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="N4" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
@@ -4163,10 +4163,10 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>41</v>
@@ -4175,25 +4175,25 @@
         <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="Q5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
@@ -4204,45 +4204,45 @@
         <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="J6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="N6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>42</v>
@@ -4251,36 +4251,36 @@
         <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>56</v>
+        <v>532</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="Q7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>55</v>
@@ -4289,647 +4289,647 @@
         <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="J8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="N8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="Q8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="J9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="N9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="Q9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="J10" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="N10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="Q10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="J11" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="N11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="Q11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="J12" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="N12" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="Q12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="G13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="J13" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="N13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="Q13" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="N14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="G15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="N15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q15" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="N16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="Q16" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="G17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="N17" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="P17" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="18" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D18" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="G18" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="N18" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="P18" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q18" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="N19" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="Q19" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="20" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="G20" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="N20" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="Q20" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="G21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="N21" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="G22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="N22" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="G23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="I23" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="24" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D24" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="G24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="N24" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D25" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="N25" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="26" spans="4:18" x14ac:dyDescent="0.45">
       <c r="N26" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="27" spans="4:18" x14ac:dyDescent="0.45">
       <c r="N27" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="29" spans="4:18" x14ac:dyDescent="0.45">
       <c r="N29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="30" spans="4:18" x14ac:dyDescent="0.45">
       <c r="N30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.45">
       <c r="N31" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="P31" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="32" spans="4:18" x14ac:dyDescent="0.45">
       <c r="N32" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="34" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="35" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N35" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N36" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="37" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N37" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="39" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N39" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="O39" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="P39" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N40" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="41" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N41" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="43" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N43" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="44" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N44" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="45" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N45" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="46" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N46" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="47" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N47" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -4943,7 +4943,7 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4953,64 +4953,64 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C382002-A84E-43FC-96B4-2C1E2BF314FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0037384-7955-492A-9418-44F53AB71C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人（ひと）" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="545">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2569,6 +2569,99 @@
   </si>
   <si>
     <t>えいぎょうぶちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酔っ払い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よっぱらい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（醉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>汉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組織｜そしき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姉妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゃしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乘务员）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>専門家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんもんか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专家）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3441,10 +3534,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEF3DB-BE9D-4A5E-B01E-14AF7BE7B182}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3678,10 +3771,10 @@
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>173</v>
+        <v>537</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>538</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>483</v>
@@ -3692,10 +3785,10 @@
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
         <v>455</v>
@@ -3705,11 +3798,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>31</v>
+      <c r="A17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>441</v>
@@ -3722,11 +3815,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>344</v>
+      <c r="A18" t="s">
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>485</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>509</v>
@@ -3737,10 +3830,10 @@
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>349</v>
+        <v>485</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>493</v>
@@ -3754,10 +3847,10 @@
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C20" t="s">
         <v>356</v>
@@ -3774,10 +3867,10 @@
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D21" t="s">
         <v>463</v>
@@ -3791,10 +3884,10 @@
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>355</v>
       </c>
       <c r="C22" t="s">
         <v>246</v>
@@ -3811,10 +3904,10 @@
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>368</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
         <v>486</v>
@@ -3831,10 +3924,10 @@
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>369</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>113</v>
+        <v>368</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>109</v>
@@ -3848,10 +3941,10 @@
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>371</v>
+        <v>114</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>372</v>
+        <v>113</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>516</v>
@@ -3865,18 +3958,27 @@
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>513</v>
@@ -3884,26 +3986,26 @@
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>511</v>
+        <v>375</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>512</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>244</v>
+        <v>511</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>245</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>249</v>
@@ -3911,10 +4013,10 @@
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>311</v>
+        <v>247</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s">
         <v>313</v>
@@ -3922,10 +4024,10 @@
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="C32" t="s">
         <v>313</v>
@@ -3933,10 +4035,10 @@
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>235</v>
+        <v>362</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>237</v>
+        <v>363</v>
       </c>
       <c r="C33" t="s">
         <v>236</v>
@@ -3944,41 +4046,49 @@
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>365</v>
+        <v>235</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>364</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>365</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>392</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>393</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>423</v>
       </c>
     </row>
@@ -3992,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E45E9-7E3C-4E46-B80D-4D33EE5EAA16}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4031,6 +4141,9 @@
       <c r="N1" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="Q1" s="1" t="s">
         <v>119</v>
       </c>
@@ -4780,6 +4893,15 @@
       </c>
     </row>
     <row r="26" spans="4:18" x14ac:dyDescent="0.45">
+      <c r="D26" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>541</v>
+      </c>
       <c r="N26" s="1" t="s">
         <v>477</v>
       </c>
@@ -4788,6 +4910,15 @@
       </c>
     </row>
     <row r="27" spans="4:18" x14ac:dyDescent="0.45">
+      <c r="D27" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="N27" s="1" t="s">
         <v>481</v>
       </c>

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0037384-7955-492A-9418-44F53AB71C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CBDF84-00F2-4F3D-9B63-4800B8B9AE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="548">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2661,6 +2661,30 @@
         <charset val="134"/>
       </rPr>
       <t>专家）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>係員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かかりいん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负责人）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4102,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E45E9-7E3C-4E46-B80D-4D33EE5EAA16}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4885,6 +4909,15 @@
       <c r="E25" s="1" t="s">
         <v>505</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>547</v>
+      </c>
       <c r="N25" s="1" t="s">
         <v>460</v>
       </c>

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CBDF84-00F2-4F3D-9B63-4800B8B9AE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E7D84A-5C41-487D-A351-F9924D0F09DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人（ひと）" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="552">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2686,6 +2686,22 @@
       </rPr>
       <t>负责人）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（外甥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きんじょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（隣）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3067,7 +3083,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+      <selection activeCell="D2" sqref="D2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3560,8 +3576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEF3DB-BE9D-4A5E-B01E-14AF7BE7B182}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4004,8 +4020,17 @@
       <c r="B27" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>513</v>
+      <c r="C27" t="s">
+        <v>548</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -4014,6 +4039,9 @@
       </c>
       <c r="B28" s="1" t="s">
         <v>376</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -4126,8 +4154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E45E9-7E3C-4E46-B80D-4D33EE5EAA16}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="N14" sqref="N5:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5106,7 +5134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7EE3CD-66E8-4B45-9FBB-77919FACC157}">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E7D84A-5C41-487D-A351-F9924D0F09DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7546D7-A4C0-4097-9968-31D842D64FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人（ひと）" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="556">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2702,6 +2702,22 @@
   </si>
   <si>
     <t>（隣）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じじい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そぼ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3083,7 +3099,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3574,10 +3590,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEF3DB-BE9D-4A5E-B01E-14AF7BE7B182}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3998,10 +4014,10 @@
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>371</v>
+        <v>552</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>372</v>
+        <v>553</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>533</v>
@@ -4015,13 +4031,10 @@
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>374</v>
+        <v>244</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C27" t="s">
-        <v>548</v>
+        <v>245</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>549</v>
@@ -4035,112 +4048,131 @@
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>375</v>
+        <v>554</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>513</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>511</v>
+        <v>371</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>512</v>
+        <v>372</v>
+      </c>
+      <c r="C29" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>244</v>
+        <v>374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>249</v>
+        <v>373</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>247</v>
+        <v>375</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" t="s">
-        <v>313</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>311</v>
+        <v>511</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" t="s">
-        <v>313</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>362</v>
+        <v>247</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C33" t="s">
-        <v>236</v>
+        <v>248</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>237</v>
+        <v>312</v>
+      </c>
+      <c r="C34" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
+      </c>
+      <c r="C35" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>237</v>
+      </c>
+      <c r="C36" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>423</v>
       </c>
     </row>
@@ -4154,8 +4186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E45E9-7E3C-4E46-B80D-4D33EE5EAA16}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="N14" sqref="N5:O14"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4860,6 +4892,12 @@
       <c r="O21" s="1" t="s">
         <v>415</v>
       </c>
+      <c r="Q21" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
@@ -5134,7 +5172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7EE3CD-66E8-4B45-9FBB-77919FACC157}">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7546D7-A4C0-4097-9968-31D842D64FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD92CC-9348-431D-A53C-AAAB7E130EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人（ひと）" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="563">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2718,6 +2718,34 @@
   </si>
   <si>
     <t>そぼ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊（とくしゅ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なかま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思春期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ししゅんき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集団生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅうだんせいかつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3096,10 +3124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5200012D-6D74-4944-AC85-D70173961954}">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3341,6 +3369,14 @@
       </c>
       <c r="F17" s="1" t="s">
         <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="D18" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -3590,10 +3626,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEF3DB-BE9D-4A5E-B01E-14AF7BE7B182}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F1:F26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3607,15 +3643,18 @@
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H1" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>216</v>
       </c>
@@ -3632,13 +3671,19 @@
         <v>59</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>161</v>
       </c>
@@ -3654,15 +3699,21 @@
       <c r="F3" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="L3" t="s">
         <v>377</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>218</v>
       </c>
@@ -3675,8 +3726,14 @@
       <c r="E4" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H4" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>196</v>
       </c>
@@ -3692,8 +3749,14 @@
       <c r="F5" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H5" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>360</v>
       </c>
@@ -3706,8 +3769,14 @@
       <c r="E6" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H6" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>357</v>
       </c>
@@ -3715,7 +3784,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>230</v>
       </c>
@@ -3732,7 +3801,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>341</v>
       </c>
@@ -3746,7 +3815,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>346</v>
       </c>
@@ -3763,7 +3832,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>352</v>
       </c>
@@ -3780,7 +3849,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>527</v>
       </c>
@@ -3797,7 +3866,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>108</v>
       </c>
@@ -3811,7 +3880,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>103</v>
       </c>
@@ -3825,7 +3894,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>537</v>
       </c>
@@ -3839,7 +3908,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>173</v>
       </c>
@@ -4053,6 +4122,12 @@
       <c r="B28" s="1" t="s">
         <v>555</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
@@ -4142,38 +4217,6 @@
       </c>
       <c r="B37" s="1" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -4186,8 +4229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E45E9-7E3C-4E46-B80D-4D33EE5EAA16}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="G13" sqref="F13:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD92CC-9348-431D-A53C-AAAB7E130EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAE618D-7FFC-46D7-85B7-6C35AB098D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人（ひと）" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="569">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2746,6 +2746,30 @@
   </si>
   <si>
     <t>しゅうだんせいかつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裏切り者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うらぎりもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はかせ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植民者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょくみんしゃ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3628,8 +3652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEF3DB-BE9D-4A5E-B01E-14AF7BE7B182}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A11:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4227,10 +4251,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E45E9-7E3C-4E46-B80D-4D33EE5EAA16}">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="G13" sqref="F13:G19"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4595,6 +4619,12 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>566</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>447</v>
       </c>
@@ -4799,6 +4829,9 @@
       <c r="O16" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="P16" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="Q16" s="1" t="s">
         <v>381</v>
       </c>
@@ -4826,7 +4859,7 @@
         <v>306</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>384</v>
@@ -4854,9 +4887,6 @@
       <c r="O18" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="Q18" s="1" t="s">
         <v>386</v>
       </c>
@@ -4935,6 +4965,9 @@
       <c r="O21" s="1" t="s">
         <v>415</v>
       </c>
+      <c r="P21" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="Q21" s="1" t="s">
         <v>314</v>
       </c>
@@ -4964,9 +4997,6 @@
       <c r="O22" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>435</v>
-      </c>
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
@@ -5068,140 +5098,158 @@
         <v>482</v>
       </c>
     </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.45">
+      <c r="N28" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
     <row r="29" spans="4:18" x14ac:dyDescent="0.45">
       <c r="N29" s="1" t="s">
-        <v>181</v>
+        <v>563</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.45">
-      <c r="N30" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>184</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.45">
       <c r="N31" s="1" t="s">
-        <v>530</v>
+        <v>181</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>531</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="4:18" x14ac:dyDescent="0.45">
       <c r="N32" s="1" t="s">
-        <v>499</v>
+        <v>183</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="P32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="33" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N33" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="34" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N34" s="1" t="s">
-        <v>252</v>
+        <v>499</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N35" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>253</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N36" s="1" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N37" s="1" t="s">
-        <v>458</v>
+        <v>254</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>459</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N39" s="1" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P39" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="40" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="P40" s="1" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="40" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N40" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="41" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N41" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N42" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N43" s="1" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N44" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N45" s="1" t="s">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>227</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N46" s="1" t="s">
-        <v>444</v>
+        <v>303</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>445</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N47" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N48" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="49" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N49" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>454</v>
       </c>
     </row>

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAE618D-7FFC-46D7-85B7-6C35AB098D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A94938A-9FB6-4E25-90A2-5CFA78FB3900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人（ひと）" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="585">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2770,6 +2770,70 @@
   </si>
   <si>
     <t>しょくみんしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無神論者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むしんろんしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同胞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みょうじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明星食品｜みょうじょうしょくひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侵略者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんりゃくしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁縫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいばん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>われわれ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3151,7 +3215,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3411,10 +3475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3457,35 +3521,48 @@
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -3653,7 +3730,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A11:F22"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4113,13 +4190,13 @@
         <v>553</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>534</v>
+        <v>572</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -4130,13 +4207,13 @@
         <v>245</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -4147,10 +4224,13 @@
         <v>555</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>562</v>
+        <v>550</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -4162,6 +4242,12 @@
       </c>
       <c r="C29" t="s">
         <v>548</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -4251,10 +4337,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E45E9-7E3C-4E46-B80D-4D33EE5EAA16}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5099,46 +5185,60 @@
       </c>
     </row>
     <row r="28" spans="4:18" x14ac:dyDescent="0.45">
+      <c r="D28" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>579</v>
+      </c>
       <c r="N28" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.45">
+      <c r="D29" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.45">
+      <c r="N30" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>568</v>
-      </c>
-    </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.45">
-      <c r="N29" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.45">
       <c r="N31" s="1" t="s">
-        <v>181</v>
+        <v>563</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>182</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="4:18" x14ac:dyDescent="0.45">
-      <c r="N32" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="P32" s="4" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="33" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N33" s="1" t="s">
-        <v>530</v>
+        <v>181</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>529</v>
+        <v>182</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>501</v>
@@ -5146,111 +5246,136 @@
     </row>
     <row r="34" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N34" s="1" t="s">
-        <v>499</v>
+        <v>183</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>500</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N35" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="36" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N36" s="1" t="s">
-        <v>252</v>
+        <v>499</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N37" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>253</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N38" s="1" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N39" s="1" t="s">
-        <v>458</v>
+        <v>254</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>459</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="P40" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="41" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N41" s="1" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="42" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N42" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>262</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N43" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N44" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N45" s="1" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="46" spans="14:16" x14ac:dyDescent="0.45">
-      <c r="N46" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N47" s="1" t="s">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>227</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="14:16" x14ac:dyDescent="0.45">
       <c r="N48" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N49" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N50" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.45">
-      <c r="N49" s="1" t="s">
+    <row r="51" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N51" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>454</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="52" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N52" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/人間（にんげん）.xlsx
+++ b/人間（にんげん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A94938A-9FB6-4E25-90A2-5CFA78FB3900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540516C6-08CA-4831-848C-5FE86B48DB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人（ひと）" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="591">
   <si>
     <t>わたし</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2834,6 +2834,30 @@
   </si>
   <si>
     <t>われわれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教え子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしえご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうてい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうにん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3477,7 +3501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3729,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEF3DB-BE9D-4A5E-B01E-14AF7BE7B182}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4339,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E45E9-7E3C-4E46-B80D-4D33EE5EAA16}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4746,6 +4770,12 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>160</v>
       </c>
@@ -5083,6 +5113,12 @@
       <c r="O22" s="1" t="s">
         <v>434</v>
       </c>
+      <c r="Q22" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
@@ -5213,6 +5249,12 @@
       </c>
     </row>
     <row r="30" spans="4:18" x14ac:dyDescent="0.45">
+      <c r="D30" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>590</v>
+      </c>
       <c r="N30" s="1" t="s">
         <v>567</v>
       </c>
